--- a/LF/TAS/Nigeria/ng_lf_tas_2_participant_202202.xlsx
+++ b/LF/TAS/Nigeria/ng_lf_tas_2_participant_202202.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12240" tabRatio="500"/>
+    <workbookView windowWidth="28800" windowHeight="12240" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="88">
   <si>
     <t>type</t>
   </si>
@@ -153,6 +153,27 @@
     <t>The value must not be greater than the age</t>
   </si>
   <si>
+    <t>select_one id_list</t>
+  </si>
+  <si>
+    <t>p_IDMethod</t>
+  </si>
+  <si>
+    <t>How will the individual's unique ID be generated?</t>
+  </si>
+  <si>
+    <t>barcode</t>
+  </si>
+  <si>
+    <t>p_Barcode_id</t>
+  </si>
+  <si>
+    <t>Scan barcode now</t>
+  </si>
+  <si>
+    <t>${p_consent} = 'Yes' and ${p_IDMethod} = 'Scanner'</t>
+  </si>
+  <si>
     <t>p_id_sequence</t>
   </si>
   <si>
@@ -165,6 +186,9 @@
     <t>The number must be greater than 0</t>
   </si>
   <si>
+    <t>${p_consent} = 'Yes' and ${p_IDMethod} = 'Sequential'</t>
+  </si>
+  <si>
     <t>p_code_id</t>
   </si>
   <si>
@@ -237,10 +261,7 @@
     <t>Scanner</t>
   </si>
   <si>
-    <t>ID_generation</t>
-  </si>
-  <si>
-    <t>Automatic ID generation</t>
+    <t>Sequential</t>
   </si>
   <si>
     <t>form_title</t>
@@ -252,10 +273,10 @@
     <t>default_language</t>
   </si>
   <si>
-    <t>(Fev 2022) Nigeria - 2. TAS1 LF Participants Form</t>
-  </si>
-  <si>
-    <t>ng_lf_tas_2_participant_202202</t>
+    <t>(Fev 2022) Nigeria - 2. TAS1 LF Participants Form V2</t>
+  </si>
+  <si>
+    <t>ng_lf_tas_2_participant_202202_2</t>
   </si>
   <si>
     <t>English</t>
@@ -266,10 +287,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -297,13 +318,6 @@
     </font>
     <font>
       <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -328,13 +342,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -358,10 +365,64 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -373,6 +434,35 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -381,66 +471,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
@@ -448,16 +478,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -472,187 +495,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -744,26 +767,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -793,145 +796,171 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="47">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -953,22 +982,22 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -978,7 +1007,7 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="47">
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="60% - Accent6" xfId="1" builtinId="52"/>
     <cellStyle name="40% - Accent6" xfId="2" builtinId="51"/>
@@ -1021,11 +1050,13 @@
     <cellStyle name="Title" xfId="39" builtinId="15"/>
     <cellStyle name="Currency [0]" xfId="40" builtinId="7"/>
     <cellStyle name="Warning Text" xfId="41" builtinId="11"/>
-    <cellStyle name="Heading 2" xfId="42" builtinId="17"/>
-    <cellStyle name="Comma" xfId="43" builtinId="3"/>
-    <cellStyle name="Check Cell" xfId="44" builtinId="23"/>
-    <cellStyle name="60% - Accent3" xfId="45" builtinId="40"/>
-    <cellStyle name="Percent" xfId="46" builtinId="5"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9"/>
+    <cellStyle name="Heading 2" xfId="43" builtinId="17"/>
+    <cellStyle name="Comma" xfId="44" builtinId="3"/>
+    <cellStyle name="Check Cell" xfId="45" builtinId="23"/>
+    <cellStyle name="60% - Accent3" xfId="46" builtinId="40"/>
+    <cellStyle name="Percent" xfId="47" builtinId="5"/>
+    <cellStyle name="Hyperlink" xfId="48" builtinId="8"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
   <extLst>
@@ -1294,14 +1325,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:N16"/>
+  <dimension ref="A1:N18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F13" sqref="F13"/>
+      <selection pane="bottomRight" activeCell="A12" sqref="$A12:$XFD12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -1589,73 +1620,83 @@
       <c r="L10" s="5"/>
       <c r="M10" s="5"/>
     </row>
-    <row r="11" s="3" customFormat="1" spans="1:10">
-      <c r="A11" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11" s="4" t="s">
+    <row r="11" s="5" customFormat="1" ht="15.75" customHeight="1" spans="1:13">
+      <c r="A11" s="5" t="s">
         <v>45</v>
       </c>
+      <c r="B11" s="8" t="s">
+        <v>46</v>
+      </c>
       <c r="C11" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="D11" s="9"/>
-      <c r="F11" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="G11" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="H11" s="3" t="s">
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4" t="s">
         <v>36</v>
       </c>
+      <c r="I11" s="4"/>
       <c r="J11" s="4" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="12" s="3" customFormat="1" ht="42.75" spans="1:14">
-      <c r="A12" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B12" s="9" t="s">
+      <c r="K11" s="4"/>
+      <c r="L11" s="4"/>
+      <c r="M11" s="4"/>
+    </row>
+    <row r="12" s="5" customFormat="1" ht="15.75" customHeight="1" spans="1:13">
+      <c r="A12" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B12" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="C12" s="9" t="s">
+      <c r="C12" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="D12" s="9"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
       <c r="H12" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="I12" s="3" t="s">
         <v>51</v>
       </c>
+      <c r="I12" s="4"/>
       <c r="J12" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="N12" s="3" t="s">
+      <c r="K12" s="4"/>
+      <c r="L12" s="4"/>
+      <c r="M12" s="4"/>
+    </row>
+    <row r="13" s="3" customFormat="1" spans="1:10">
+      <c r="A13" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D13" s="9"/>
+      <c r="F13" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="J13" s="4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="13" s="3" customFormat="1" ht="28.5" spans="1:10">
-      <c r="A13" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="B13" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="D13" s="9"/>
-      <c r="H13" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="J13" s="4"/>
-    </row>
-    <row r="14" s="3" customFormat="1" spans="1:4">
+    <row r="14" s="3" customFormat="1" ht="42.75" spans="1:14">
       <c r="A14" s="3" t="s">
-        <v>56</v>
+        <v>21</v>
       </c>
       <c r="B14" s="9" t="s">
         <v>57</v>
@@ -1664,23 +1705,63 @@
         <v>58</v>
       </c>
       <c r="D14" s="9"/>
-    </row>
-    <row r="15" s="3" customFormat="1" spans="1:4">
+      <c r="H14" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="J14" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="N14" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" s="3" customFormat="1" ht="28.5" spans="1:10">
       <c r="A15" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="C15" s="9"/>
+        <v>61</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>62</v>
+      </c>
       <c r="D15" s="9"/>
-    </row>
-    <row r="16" spans="1:2">
+      <c r="H15" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="J15" s="4"/>
+    </row>
+    <row r="16" s="3" customFormat="1" spans="1:4">
       <c r="A16" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="B16" t="s">
-        <v>62</v>
+        <v>64</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="D16" s="9"/>
+    </row>
+    <row r="17" s="3" customFormat="1" spans="1:4">
+      <c r="A17" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B18" t="s">
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -1698,7 +1779,7 @@
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D1" sqref="D$1:D$1048576"/>
+      <selection pane="bottomLeft" activeCell="A6" sqref="A6:C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" outlineLevelRow="6" outlineLevelCol="3"/>
@@ -1710,7 +1791,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -1719,73 +1800,73 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="4" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="B2" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="C2" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="4" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="B3" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="C3" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="4" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="B4" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="C4" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="4" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="B5" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="C5" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="B6" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="C6" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="B7" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="C7" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -1802,8 +1883,8 @@
   <sheetPr/>
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" outlineLevelRow="1" outlineLevelCol="2"/>
@@ -1815,24 +1896,24 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="3" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="B2" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="C2" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
